--- a/data/life_years.xlsx
+++ b/data/life_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\DICEFARM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF456B17-4FD1-4214-A87B-5CD0C970D832}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E393D54-2E99-4463-8B30-D2A65F14EA05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="3696" windowWidth="17280" windowHeight="8964" xr2:uid="{A389ACFD-8583-46BA-94BE-0FF6FBACAA2A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19428" windowHeight="8964" xr2:uid="{A389ACFD-8583-46BA-94BE-0FF6FBACAA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cattle</t>
   </si>
@@ -64,18 +64,22 @@
   </si>
   <si>
     <t>life_years_per_kg_protein</t>
+  </si>
+  <si>
+    <t>life_years_per_20g_protein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,14 +131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -450,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BC3AE8-2141-43D9-8DF6-EE217BF3C6CA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,11 +468,12 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -489,8 +495,11 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,8 +528,12 @@
         <f>D2/G2</f>
         <v>8.8817850816491906E-2</v>
       </c>
+      <c r="I2" s="7">
+        <f>H2/50</f>
+        <v>1.7763570163298382E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -551,8 +564,12 @@
         <f t="shared" ref="H3:H4" si="0">D3/G3</f>
         <v>0.5145981751521943</v>
       </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I4" si="1">H3/50</f>
+        <v>1.0291963503043886E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -581,8 +598,12 @@
         <f t="shared" si="0"/>
         <v>5.1822711506217457E-2</v>
       </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0364542301243491E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
